--- a/graphs/Workbook2.xlsx
+++ b/graphs/Workbook2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16180" tabRatio="500"/>
   </bookViews>
@@ -619,11 +619,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -995,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
